--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,20 +550,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,132 +588,182 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.83</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.35</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>005515</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>005516</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,25 +824,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>010488</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>鹏华优选成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>54.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001007</t>
+          <t>000173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安鑫安灵活配置混合</t>
+          <t>汇添富美丽30混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>19.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310308</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信盛利精选混合</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>73.56</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>50.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7264</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>310388</t>
+          <t>310308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信消费增长混合</t>
+          <t>申万菱信盛利精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000173</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富美丽30混合</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000175</t>
+          <t>310388</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富高息债债券C</t>
+          <t>申万菱信消费增长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>000175</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>汇添富高息债债券C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010489</t>
+          <t>002307</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合C</t>
+          <t>银华多元视野灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001613</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长城久祥灵活配置混合</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002296</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长城行业轮动灵活配置混合</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002307</t>
+          <t>010489</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华多元视野灵活配置混合</t>
+          <t>鹏华优选成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>180028</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>银华永祥灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011172</t>
+          <t>002296</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合C</t>
+          <t>长城行业轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>011172</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>广发利鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>50.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>180028</t>
+          <t>001613</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银华永祥灵活配置混合</t>
+          <t>长城久祥灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>77.84</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>93.52</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1866,4 +1867,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +2017,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="4">
@@ -1938,13 +2033,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2220,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2141,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,17 +2153,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2193,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2188,14 +2231,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2204,14 +2269,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2220,14 +2307,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.64</v>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2236,13 +2345,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160127</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方新兴消费增长股票（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3259</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160144</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方新兴消费增长股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3259</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000684</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛养老健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="7">
@@ -697,74 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -829,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010488</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华优选成长混合A</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.69</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9571</t>
+          <t>0.3096</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -867,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000173</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富美丽30混合</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.06</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7929</t>
+          <t>0.1206</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -905,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>013289</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>工银食品饮料行业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7264</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -943,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>310308</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信盛利精选混合</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.80</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.56</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6185</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -981,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>013290</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>工银食品饮料行业混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3643</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1019,530 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310388</t>
+          <t>014029</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信消费增长混合</t>
+          <t>浦银安盛红利精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3197</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000175</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富高息债债券C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2330</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002307</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华多元视野灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1864</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008424</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融品牌优选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1093</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国联安鑫安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010703</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通智选消费股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0698</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010704</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通智选消费股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010489</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华优选成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>39.55</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>180028</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银华永祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>77.84</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002296</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城行业轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.57</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>50.93</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005328</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源价值策略股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008425</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融品牌优选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1607,32 +923,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>519710</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>交银施罗德策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>79.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6757</t>
+          <t>0.1142</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1645,32 +961,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310308</t>
+          <t>003234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信盛利精选混合</t>
+          <t>信诚至利灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.27</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5459</t>
+          <t>0.0423</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1683,188 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310388</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信消费增长混合</t>
+          <t>信诚至利灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2730</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>180028</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华永祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009486</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009487</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,7 +1157,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2023,32 +1187,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519710</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>23.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>64.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1142</t>
+          <t>0.6757</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2061,32 +1225,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003234</t>
+          <t>310308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合A</t>
+          <t>申万菱信盛利精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>23.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.5459</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2099,36 +1263,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003235</t>
+          <t>310388</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合C</t>
+          <t>申万菱信消费增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0249</t>
+          <t>0.2730</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2193,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>010488</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>鹏华优选成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>54.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>39.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3096</t>
+          <t>0.9571</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2231,36 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>000173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>汇添富美丽30混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>19.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1206</t>
+          <t>0.7929</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2269,36 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013289</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银食品饮料行业混合A</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>50.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.7264</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2307,36 +1623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>310308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>申万菱信盛利精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>73.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0662</t>
+          <t>0.6185</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2345,32 +1661,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013290</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银食品饮料行业混合C</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>84.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.3643</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2383,36 +1699,530 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014029</t>
+          <t>310388</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合C</t>
+          <t>申万菱信消费增长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.3197</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富高息债债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2426,7 +2236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2247,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2287,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2325,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2363,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2505,14 +2401,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.58</v>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2521,14 +2439,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.64</v>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2537,14 +2477,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.71</v>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -583,6 +600,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013341</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银核心机遇混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013342</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银核心机遇混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1036,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1130,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2230,7 +3291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002847-盐津铺子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>3.95</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.58</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.71</v>
       </c>
     </row>
@@ -600,6 +617,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9743</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013341</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银核心机遇混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013342</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银核心机遇混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013957</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>017461</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2191,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3291,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
